--- a/split_fed_label_flipping_5_to_9_inner_epochs=5_epochs=50_PDR=1.0.xlsx
+++ b/split_fed_label_flipping_5_to_9_inner_epochs=5_epochs=50_PDR=1.0.xlsx
@@ -495,34 +495,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.301861229482457</v>
+        <v>1.55170956407718</v>
       </c>
       <c r="C2" t="n">
-        <v>29.74958554376658</v>
+        <v>50.2692586298998</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3.447273904360258</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>26.85586538461538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1198194402614757</v>
+        <v>1.588552806150336e-05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002633635502275171</v>
+        <v>0.0001041258522063519</v>
       </c>
       <c r="H2" t="n">
-        <v>4.40044149696059e-06</v>
+        <v>1.278914436817972e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>3.200939556046928e-05</v>
+        <v>1.958514593039362e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K2" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="3">
@@ -530,34 +530,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.145840412393454</v>
+        <v>1.528006540183091</v>
       </c>
       <c r="C3" t="n">
-        <v>35.99672637138963</v>
+        <v>50.1204594017094</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.986432711894695</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>23.60644230769231</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1203293186511823</v>
+        <v>1.962952017142747e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002570288414659861</v>
+        <v>4.266125256260874e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>1.1533658243921e-05</v>
+        <v>1.311237686849549e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>3.022466133326486e-05</v>
+        <v>1.719467320928365e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K3" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="4">
@@ -565,34 +565,34 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.850031887196279</v>
+        <v>1.218245322950779</v>
       </c>
       <c r="C4" t="n">
-        <v>44.24196127597259</v>
+        <v>61.62722816276156</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.71243647978856</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>34.72663461538461</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1207779550516688</v>
+        <v>1.639946265762712e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002416896474077941</v>
+        <v>3.62863610225246e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.32902161752053e-05</v>
+        <v>1.397479205070597e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.84212686743859e-05</v>
+        <v>1.400991105441588e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K4" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="5">
@@ -600,34 +600,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.847509754763095</v>
+        <v>0.8566317314019235</v>
       </c>
       <c r="C5" t="n">
-        <v>45.09569241821397</v>
+        <v>71.75519037356321</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2.484224304052499</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>44.15778846153847</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1241984201233335</v>
+        <v>1.681548557564601e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002388344649089699</v>
+        <v>3.26107441142735e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>1.323655153199095e-05</v>
+        <v>1.268656510378041e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.61876741456648e-05</v>
+        <v>1.607959221960755e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K5" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="6">
@@ -635,34 +635,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1.62651793591524</v>
+        <v>0.5646817773930309</v>
       </c>
       <c r="C6" t="n">
-        <v>51.14196449952107</v>
+        <v>81.736743617374</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.135906487428225</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>53.60788461538461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1182331684025222</v>
+        <v>1.64900306357144e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00243244854785206</v>
+        <v>4.139987626698671e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>1.399310207583152e-05</v>
+        <v>1.30654409996545e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>2.466348195418708e-05</v>
+        <v>1.574160253291976e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K6" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="7">
@@ -670,34 +670,34 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.411153928943222</v>
+        <v>0.4904700498191122</v>
       </c>
       <c r="C7" t="n">
-        <v>58.39806886420572</v>
+        <v>84.39583782327585</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.738418041926164</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.32538461538462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1259305208074182</v>
+        <v>1.695282119679512e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002440836102764224</v>
+        <v>3.567078228376189e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.305222764843989e-05</v>
+        <v>1.402597896147118e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>2.346310248393526e-05</v>
+        <v>1.626867445709759e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K7" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="8">
@@ -705,34 +705,34 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1.237229763137866</v>
+        <v>0.3008160258062906</v>
       </c>
       <c r="C8" t="n">
-        <v>63.17633673647951</v>
+        <v>90.14913194444443</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.599653952534382</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>66.52923076923078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1214662237581188</v>
+        <v>1.63978883730856e-05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002447605840957976</v>
+        <v>3.93594909092384e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.416240503759324e-05</v>
+        <v>1.411134127462896e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>2.573891834144944e-05</v>
+        <v>1.719711663811114e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K8" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="9">
@@ -740,34 +740,34 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.088225807677828</v>
+        <v>0.2299813672273126</v>
       </c>
       <c r="C9" t="n">
-        <v>67.82322785422193</v>
+        <v>92.67730978761421</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1.484041380607165</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>72.55326923076923</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1194569511419689</v>
+        <v>1.728849497889328e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002404107768876263</v>
+        <v>4.100925397718448e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>1.318825678356962e-05</v>
+        <v>1.417844886255171e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>2.376670011890613e-05</v>
+        <v>1.574634728905604e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K9" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="10">
@@ -775,34 +775,34 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9992029914895483</v>
+        <v>0.1911591503464505</v>
       </c>
       <c r="C10" t="n">
-        <v>70.95496990587239</v>
+        <v>93.7871082237327</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.307948147379435</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>74.84134615384615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1261559677753673</v>
+        <v>1.869225695656713e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002701476308253928</v>
+        <v>4.248482002158786e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>1.324635528774219e-05</v>
+        <v>1.399809574702689e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>2.319394562532435e-05</v>
+        <v>1.715959105213759e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K10" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
     <row r="11">
@@ -810,34 +810,34 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9484366700623263</v>
+        <v>0.1489844276576327</v>
       </c>
       <c r="C11" t="n">
-        <v>72.61204962422634</v>
+        <v>95.38927824749484</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.134029140770435</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.84461538461538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1262832647657011</v>
+        <v>1.856561332381571e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002484316546788171</v>
+        <v>4.518275063764446e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>1.23964464165651e-05</v>
+        <v>1.419794730860237e-05</v>
       </c>
       <c r="I11" t="n">
-        <v>2.36197443231433e-05</v>
+        <v>1.734717578612177e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>4005727570</v>
+        <v>588670290</v>
       </c>
       <c r="K11" t="n">
-        <v>4005455186</v>
+        <v>588670290</v>
       </c>
     </row>
   </sheetData>
